--- a/Profit Amount/sample_order_data.xlsx
+++ b/Profit Amount/sample_order_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Profit Amount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9EDC7-ABEC-47F6-9E01-DD7129A70958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sku Code</t>
   </si>
@@ -25,47 +31,44 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>SERVO PRIDE 40 - 20x1L - HDPE</t>
-  </si>
-  <si>
-    <t>SERVO PRIDE 40 - 4x5L - HDPE</t>
-  </si>
-  <si>
     <t>SERVO GEAR HP 90-40X1/2L-HDPE</t>
   </si>
   <si>
     <t>SERVO GEAR HP 90-20X1L-HDPE</t>
   </si>
   <si>
-    <t>SERVO GEAR HP 90 - 4x5L - HDPE</t>
-  </si>
-  <si>
-    <t>MGGO 80W-90 - 4 X 2.1 L</t>
-  </si>
-  <si>
     <t>HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE</t>
   </si>
   <si>
-    <t>SERVO 4T XTRA 10W-30-20 X 0.9 L PROMO</t>
-  </si>
-  <si>
-    <t>SERVO 2T SUPREME(JFC)-300x40ML - POU</t>
-  </si>
-  <si>
-    <t>SERVO 2T SUPREME (JFC) - 200X60ML - POU</t>
-  </si>
-  <si>
     <t>SERVO 2T SUPREME-20 X 1 L</t>
   </si>
   <si>
-    <t>SERVO BRAKE FLUID SUPER HD - 20X1/4L-HDP</t>
+    <t>SERVO 2T SUPREME-20X1/2 L</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 4 X 3 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4 X 3 L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,14 +98,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,16 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,136 +458,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="1">
-        <v>1404184</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2502174</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2502184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2557195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2900175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2900184</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="1">
-        <v>1404234</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7427213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7577184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7584184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="1">
-        <v>2502174</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="1">
-        <v>2502184</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="1">
-        <v>2502234</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7600184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7600203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7688203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>2540199</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>2557195</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>2829230</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>2900125</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>2900145</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>2900184</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>2909165</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
